--- a/biology/Médecine/Muscle_génioglosse/Muscle_génioglosse.xlsx
+++ b/biology/Médecine/Muscle_génioglosse/Muscle_génioglosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_g%C3%A9nioglosse</t>
+          <t>Muscle_génioglosse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle génioglosse (ou génioglosse) (Musculus genioglossus en latin) est un muscle pair (un à droite, un à gauche), le plus volumineux des 17 muscles de la langue. Il fait partie des muscles extrinsèques de la langue (qui ont au moins un point d'attache extérieur à la langue).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_g%C3%A9nioglosse</t>
+          <t>Muscle_génioglosse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom est formé sur le grec γένειον, géneion (« menton ») et γλῶσσα, glỗssa (« langue »). La première mention du muscle remonte au début du XVIIe siècle. Elle est le fait de Helkiah Crooke (1576 – 1648), médecin du roi Jacques Stuart.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_g%C3%A9nioglosse</t>
+          <t>Muscle_génioglosse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Insertion ventrale : il s'insère sur l'apophyse mentonnière supérieure au niveau de la symphyse, sur la face interne de la mandibule
 Trajet : il s'étale en éventail de la pointe à l'extrémité postérieure de la langue,
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_g%C3%A9nioglosse</t>
+          <t>Muscle_génioglosse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par le nerf grand hypoglosse, douzième paire de nerfs crâniens.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_g%C3%A9nioglosse</t>
+          <t>Muscle_génioglosse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par l'artère linguale.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_g%C3%A9nioglosse</t>
+          <t>Muscle_génioglosse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il tire la langue vers l'avant et vers le bas. Il permet aussi la dilatation du pharynx et évite le collapsus principalement lors de pression pharyngée négative.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_g%C3%A9nioglosse</t>
+          <t>Muscle_génioglosse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,9 +689,11 @@
           <t>Apnée du sommeil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'avancement du muscle génioglosse est une chirurgie pour traiter l'apnée du sommeil[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'avancement du muscle génioglosse est une chirurgie pour traiter l'apnée du sommeil.
 </t>
         </is>
       </c>
